--- a/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>59374</v>
+        <v>59375</v>
       </c>
       <c r="D156" t="n">
-        <v>110844356</v>
+        <v>110845794</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>22199</v>
+        <v>22200</v>
       </c>
       <c r="D167" t="n">
-        <v>37631037</v>
+        <v>37633758</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>122761</v>
+        <v>122760</v>
       </c>
       <c r="D186" t="n">
-        <v>211260122</v>
+        <v>211257401</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>18562</v>
+        <v>18561</v>
       </c>
       <c r="D266" t="n">
-        <v>33824455</v>
+        <v>33823017</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>76849</v>
+        <v>76850</v>
       </c>
       <c r="D267" t="n">
-        <v>185944876</v>
+        <v>185949092</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -12518,10 +12518,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>112269</v>
+        <v>112270</v>
       </c>
       <c r="D321" t="n">
-        <v>217500916</v>
+        <v>217501634</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="D322" t="n">
-        <v>80166563</v>
+        <v>80165845</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>40389</v>
+        <v>40390</v>
       </c>
       <c r="D332" t="n">
-        <v>70275780</v>
+        <v>70276670</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -12974,10 +12974,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>63856</v>
+        <v>63855</v>
       </c>
       <c r="D333" t="n">
-        <v>103879732</v>
+        <v>103878842</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
